--- a/Src/DetailedSamples/Samples/Workbook/Output/LoadWorkbookWithFilename.xlsx
+++ b/Src/DetailedSamples/Samples/Workbook/Output/LoadWorkbookWithFilename.xlsx
@@ -10,11 +10,10 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D321AC5-FC29-4942-8F57-B2E2E9B9C63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R4e4d107158bc40ea"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="Rbded70c2cdd24f3f"/>
+    <sheet name="Sheet1" sheetId="1" r:id="Rd485c8265d654fbd"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Auto Value</t>
   </si>
@@ -104,12 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mike Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
   </si>
 </sst>
 </file>
@@ -119,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -142,12 +135,6 @@
       <b/>
       <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -183,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -202,7 +189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -916,24 +902,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>